--- a/Employee_Roster.xlsx
+++ b/Employee_Roster.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harsh/Documents/Burnout/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB5CFD4-A6EA-3848-B938-7667632BDDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
   <si>
     <t>Email</t>
   </si>
@@ -122,16 +128,451 @@
   </si>
   <si>
     <t>Gomez</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>ava.fox@test.com</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>max.sun@test.com</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>mia.lee@test.com</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>ben.kim@test.com</t>
+  </si>
+  <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>ida.wu@test.com</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>rex.lam@test.com</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>zoe.tan@test.com</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>tim.poe@test.com</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Luu</t>
+  </si>
+  <si>
+    <t>ivy.luu@test.com</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Zou</t>
+  </si>
+  <si>
+    <t>leo.zou@test.com</t>
+  </si>
+  <si>
+    <t>Sue</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>sue.roy@test.com</t>
+  </si>
+  <si>
+    <t>Kai</t>
+  </si>
+  <si>
+    <t>Quo</t>
+  </si>
+  <si>
+    <t>kai.quo@test.com</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>eve.lu@test.com</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>ian.ray@test.com</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>joy.xu@test.com</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>ted.li@test.com</t>
+  </si>
+  <si>
+    <t>Fay</t>
+  </si>
+  <si>
+    <t>Yan</t>
+  </si>
+  <si>
+    <t>fay.yan@test.com</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Wei</t>
+  </si>
+  <si>
+    <t>jay.wei@test.com</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>ken.lin@test.com</t>
+  </si>
+  <si>
+    <t>Lia</t>
+  </si>
+  <si>
+    <t>Lao</t>
+  </si>
+  <si>
+    <t>lia.lao@test.com</t>
+  </si>
+  <si>
+    <t>Moe</t>
+  </si>
+  <si>
+    <t>Fu</t>
+  </si>
+  <si>
+    <t>moe.fu@test.com</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>ray.pan@test.com</t>
+  </si>
+  <si>
+    <t>Nia</t>
+  </si>
+  <si>
+    <t>Liang</t>
+  </si>
+  <si>
+    <t>nia.liang@test.com</t>
+  </si>
+  <si>
+    <t>Mao</t>
+  </si>
+  <si>
+    <t>roy.mao@test.com</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Hu</t>
+  </si>
+  <si>
+    <t>jan.hu@test.com</t>
+  </si>
+  <si>
+    <t>Jin</t>
+  </si>
+  <si>
+    <t>Bai</t>
+  </si>
+  <si>
+    <t>jin.bai@test.com</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>Ren</t>
+  </si>
+  <si>
+    <t>liz.ren@test.com</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Ng</t>
+  </si>
+  <si>
+    <t>joe.ng@test.com</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Luo</t>
+  </si>
+  <si>
+    <t>may.luo@test.com</t>
+  </si>
+  <si>
+    <t>Sid</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>sid.han@test.com</t>
+  </si>
+  <si>
+    <t>Gus</t>
+  </si>
+  <si>
+    <t>Lei</t>
+  </si>
+  <si>
+    <t>gus.lei@test.com</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>Tao</t>
+  </si>
+  <si>
+    <t>nan.tao@test.com</t>
+  </si>
+  <si>
+    <t>Wes</t>
+  </si>
+  <si>
+    <t>wes.sun@test.com</t>
+  </si>
+  <si>
+    <t>Bea</t>
+  </si>
+  <si>
+    <t>Guo</t>
+  </si>
+  <si>
+    <t>bea.guo@test.com</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Yao</t>
+  </si>
+  <si>
+    <t>art.yao@test.com</t>
+  </si>
+  <si>
+    <t>Tia</t>
+  </si>
+  <si>
+    <t>Gao</t>
+  </si>
+  <si>
+    <t>tia.gao@test.com</t>
+  </si>
+  <si>
+    <t>Vic</t>
+  </si>
+  <si>
+    <t>vic.wu@test.com</t>
+  </si>
+  <si>
+    <t>Flo</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>flo.fan@test.com</t>
+  </si>
+  <si>
+    <t>Les</t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>les.zhou@test.com</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>Yu</t>
+  </si>
+  <si>
+    <t>ty.yu@test.com</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Pei</t>
+  </si>
+  <si>
+    <t>pat.pei@test.com</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>Cui</t>
+  </si>
+  <si>
+    <t>sal.cui@test.com</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Qian</t>
+  </si>
+  <si>
+    <t>len.qian@test.com</t>
+  </si>
+  <si>
+    <t>Syd</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>syd.he@test.com</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Kang</t>
+  </si>
+  <si>
+    <t>rob.kang@test.com</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Zhao</t>
+  </si>
+  <si>
+    <t>amy.zhao@test.com</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>lee.du@test.com</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Zeng</t>
+  </si>
+  <si>
+    <t>sam.zeng@test.com</t>
+  </si>
+  <si>
+    <t>Qin</t>
+  </si>
+  <si>
+    <t>kim.qin@test.com</t>
+  </si>
+  <si>
+    <t>Neymar</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>1880-07-21</t>
+  </si>
+  <si>
+    <t>neymar.jr@test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,21 +581,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,50 +648,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -238,10 +711,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -279,71 +752,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -371,7 +844,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -394,11 +867,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -407,13 +880,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -423,7 +896,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -432,7 +905,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -441,7 +914,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -449,10 +922,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -517,243 +990,1333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>36461</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>36300</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="10">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>35045</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>33148</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
         <v>31249</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>29225</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="10">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>29315</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <v>29254</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>32998</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="10">
         <v>2</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <v>33042</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="10">
         <v>2</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9">
+        <v>33044</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9">
+        <v>36461</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E14" s="12">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9">
+        <v>35045</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="9">
+        <v>33148</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9">
+        <v>31249</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9">
+        <v>36461</v>
+      </c>
+      <c r="E18" s="12">
+        <v>3</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="9">
+        <v>35045</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9">
+        <v>33148</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="9">
+        <v>36461</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E23" s="12">
+        <v>4</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="9">
+        <v>35045</v>
+      </c>
+      <c r="E24" s="12">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="9">
+        <v>33148</v>
+      </c>
+      <c r="E25" s="12">
+        <v>4</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="9">
+        <v>31249</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="9">
+        <v>36461</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E28" s="12">
+        <v>4</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="9">
+        <v>35045</v>
+      </c>
+      <c r="E29" s="12">
+        <v>4</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="9">
+        <v>33148</v>
+      </c>
+      <c r="E30" s="12">
+        <v>4</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="9">
+        <v>31249</v>
+      </c>
+      <c r="E31" s="12">
+        <v>4</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="9">
+        <v>36461</v>
+      </c>
+      <c r="E32" s="12">
+        <v>5</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E33" s="12">
+        <v>5</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="9">
+        <v>35045</v>
+      </c>
+      <c r="E34" s="12">
+        <v>5</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="9">
+        <v>33148</v>
+      </c>
+      <c r="E35" s="12">
+        <v>5</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="9">
+        <v>31249</v>
+      </c>
+      <c r="E36" s="12">
+        <v>5</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="9">
+        <v>36461</v>
+      </c>
+      <c r="E37" s="12">
+        <v>5</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E38" s="12">
+        <v>5</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="9">
+        <v>35045</v>
+      </c>
+      <c r="E39" s="12">
+        <v>5</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="9">
+        <v>33148</v>
+      </c>
+      <c r="E40" s="12">
+        <v>5</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="9">
+        <v>31249</v>
+      </c>
+      <c r="E41" s="12">
+        <v>5</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="9">
+        <v>36461</v>
+      </c>
+      <c r="E42" s="12">
+        <v>6</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E43" s="12">
+        <v>6</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="9">
+        <v>35045</v>
+      </c>
+      <c r="E44" s="12">
+        <v>6</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="9">
+        <v>33148</v>
+      </c>
+      <c r="E45" s="12">
+        <v>6</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="9">
+        <v>31249</v>
+      </c>
+      <c r="E46" s="12">
+        <v>6</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="9">
+        <v>36461</v>
+      </c>
+      <c r="E47" s="12">
+        <v>6</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E48" s="12">
+        <v>6</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="9">
+        <v>35045</v>
+      </c>
+      <c r="E49" s="12">
+        <v>6</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="9">
+        <v>33148</v>
+      </c>
+      <c r="E50" s="12">
+        <v>6</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="15">
+        <v>36461</v>
+      </c>
+      <c r="E51" s="12">
+        <v>7</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="15">
+        <v>36300</v>
+      </c>
+      <c r="E52" s="12">
+        <v>7</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="15">
+        <v>35045</v>
+      </c>
+      <c r="E53" s="12">
+        <v>7</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="15">
+        <v>33148</v>
+      </c>
+      <c r="E54" s="12">
+        <v>7</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="15">
+        <v>31249</v>
+      </c>
+      <c r="E55" s="12">
+        <v>7</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="15">
+        <v>36461</v>
+      </c>
+      <c r="E56" s="12">
+        <v>7</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="15">
+        <v>36300</v>
+      </c>
+      <c r="E57" s="12">
+        <v>7</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="15">
+        <v>35045</v>
+      </c>
+      <c r="E58" s="12">
+        <v>7</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="15">
+        <v>33148</v>
+      </c>
+      <c r="E59" s="12">
+        <v>7</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="15">
+        <v>31249</v>
+      </c>
+      <c r="E60" s="12">
+        <v>7</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="12">
+        <v>7</v>
+      </c>
+      <c r="F61" s="8"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A56" r:id="rId1" display="mailto:rob.kang@test.com" xr:uid="{F9BAF2B8-486F-3447-92A8-4DBC57721620}"/>
+    <hyperlink ref="A55" r:id="rId2" display="mailto:syd.he@test.com" xr:uid="{12BF04C3-693A-1B4F-A299-8E427D2E9010}"/>
+    <hyperlink ref="A54" r:id="rId3" display="mailto:len.qian@test.com" xr:uid="{BEFA65D3-A0DD-FD47-B148-341C07CD1F53}"/>
+    <hyperlink ref="A53" r:id="rId4" display="mailto:sal.cui@test.com" xr:uid="{D033E79B-01F8-D442-9A70-7423F9D0D9EB}"/>
+    <hyperlink ref="A52" r:id="rId5" display="mailto:pat.pei@test.com" xr:uid="{179C49C4-1AC7-824C-A6A3-291B0E6137FF}"/>
+    <hyperlink ref="A51" r:id="rId6" display="mailto:ty.yu@test.com" xr:uid="{C9C0E275-BB3B-154F-8269-E49C489679F8}"/>
+    <hyperlink ref="A50" r:id="rId7" display="mailto:les.zhou@test.com" xr:uid="{B41F7396-E350-5641-BCF9-3196B28FBC34}"/>
+    <hyperlink ref="A49" r:id="rId8" display="mailto:flo.fan@test.com" xr:uid="{FA167E04-B963-EE49-8072-92CC782651BE}"/>
+    <hyperlink ref="A48" r:id="rId9" display="mailto:vic.wu@test.com" xr:uid="{8841FB6D-1AB1-9A4E-9000-F7F6D82F55B1}"/>
+    <hyperlink ref="A47" r:id="rId10" display="mailto:tia.gao@test.com" xr:uid="{2F6B871A-60F4-9240-A2DE-7B8991ACBC55}"/>
+    <hyperlink ref="A46" r:id="rId11" display="mailto:art.yao@test.com" xr:uid="{3DDFCFF7-D2FF-2D4C-8255-42D6DE02A3D6}"/>
+    <hyperlink ref="A45" r:id="rId12" display="mailto:bea.guo@test.com" xr:uid="{E8DE241F-74ED-5F4F-912D-64E651C52CF5}"/>
+    <hyperlink ref="A44" r:id="rId13" display="mailto:wes.sun@test.com" xr:uid="{359E6B36-5C35-0B4E-A954-4BC08F80E8D8}"/>
+    <hyperlink ref="A43" r:id="rId14" display="mailto:nan.tao@test.com" xr:uid="{073AF73C-4ED8-F747-B735-B01095C1E576}"/>
+    <hyperlink ref="A42" r:id="rId15" display="mailto:gus.lei@test.com" xr:uid="{04D05C63-7186-FF4E-AC32-4C286D3687CD}"/>
+    <hyperlink ref="A41" r:id="rId16" display="mailto:sid.han@test.com" xr:uid="{07AEED25-1D2D-0149-BAAB-640E90C7D9BA}"/>
+    <hyperlink ref="A40" r:id="rId17" display="mailto:may.luo@test.com" xr:uid="{7282A3BB-F056-8B46-BA65-6AD2A9A4D046}"/>
+    <hyperlink ref="A39" r:id="rId18" display="mailto:joe.ng@test.com" xr:uid="{EE126C82-539C-C84F-99CA-87E369C79860}"/>
+    <hyperlink ref="A38" r:id="rId19" display="mailto:liz.ren@test.com" xr:uid="{73607C86-54E6-C247-965D-359693946F55}"/>
+    <hyperlink ref="A37" r:id="rId20" display="mailto:jin.bai@test.com" xr:uid="{2333540A-ABFF-7F4D-B003-8F3A9811159D}"/>
+    <hyperlink ref="A36" r:id="rId21" display="mailto:jan.hu@test.com" xr:uid="{5908F9E7-8E7D-D044-B2A7-65850F0D03E5}"/>
+    <hyperlink ref="A35" r:id="rId22" display="mailto:roy.mao@test.com" xr:uid="{BFD7CFA7-F352-F44B-B591-527EE10F65AE}"/>
+    <hyperlink ref="A34" r:id="rId23" display="mailto:nia.liang@test.com" xr:uid="{4DF6E1BA-CB29-F84A-8909-0DA7058541CE}"/>
+    <hyperlink ref="A33" r:id="rId24" display="mailto:ray.pan@test.com" xr:uid="{CFD5B118-A681-5C4D-A13E-D64BAC13C3D3}"/>
+    <hyperlink ref="A32" r:id="rId25" display="mailto:moe.fu@test.com" xr:uid="{D97FE61E-26B0-2949-A702-321CEF64008A}"/>
+    <hyperlink ref="A31" r:id="rId26" display="mailto:lia.lao@test.com" xr:uid="{AEDA45BB-B1E8-174D-BFAF-A60D9B4B93E3}"/>
+    <hyperlink ref="A30" r:id="rId27" display="mailto:ken.lin@test.com" xr:uid="{2651C6E8-8AD2-944E-96E2-A593297F20B7}"/>
+    <hyperlink ref="A29" r:id="rId28" display="mailto:jay.wei@test.com" xr:uid="{4C9DDED6-03F8-6145-8B61-C930CEECB83C}"/>
+    <hyperlink ref="A28" r:id="rId29" display="mailto:fay.yan@test.com" xr:uid="{DD69B3FA-E8F1-3545-8943-77C26706A206}"/>
+    <hyperlink ref="A27" r:id="rId30" display="mailto:ted.li@test.com" xr:uid="{D9222156-A467-8944-BE24-EEECD5BF521E}"/>
+    <hyperlink ref="A26" r:id="rId31" display="mailto:joy.xu@test.com" xr:uid="{326151AE-5CFB-F04C-BFBD-5B0F302CCE2E}"/>
+    <hyperlink ref="A25" r:id="rId32" display="mailto:ian.ray@test.com" xr:uid="{63FA1252-3923-704F-93BB-53E5652395A8}"/>
+    <hyperlink ref="A24" r:id="rId33" display="mailto:eve.lu@test.com" xr:uid="{B6703F8E-B356-0146-84C9-957B4BAE6F24}"/>
+    <hyperlink ref="A23" r:id="rId34" display="mailto:kai.quo@test.com" xr:uid="{88498F60-E310-CA41-B2D6-7CFF738BE015}"/>
+    <hyperlink ref="A22" r:id="rId35" display="mailto:sue.roy@test.com" xr:uid="{24421032-71B0-9B4F-B689-35EF5AE873A0}"/>
+    <hyperlink ref="A21" r:id="rId36" display="mailto:leo.zou@test.com" xr:uid="{28845DC5-99BA-6645-9823-D363D5F06D8C}"/>
+    <hyperlink ref="A20" r:id="rId37" display="mailto:ivy.luu@test.com" xr:uid="{A9CF8C66-0DDA-3A4F-A2C5-1A4BECC1B20B}"/>
+    <hyperlink ref="A19" r:id="rId38" display="mailto:tim.poe@test.com" xr:uid="{48B2CE47-79F3-EF40-97B1-3B338E5B19F5}"/>
+    <hyperlink ref="A18" r:id="rId39" display="mailto:zoe.tan@test.com" xr:uid="{C3A3BB27-D118-1549-96B5-35F28C5A1CFA}"/>
+    <hyperlink ref="A17" r:id="rId40" display="mailto:rex.lam@test.com" xr:uid="{3636B9DB-B0A6-C24A-8F4A-BB8F78A7044A}"/>
+    <hyperlink ref="A16" r:id="rId41" display="mailto:ida.wu@test.com" xr:uid="{2249847F-9AD7-674F-B999-D3F1E09D8688}"/>
+    <hyperlink ref="A15" r:id="rId42" display="mailto:ben.kim@test.com" xr:uid="{A33111B6-EA94-994E-B92D-4FD366E5E359}"/>
+    <hyperlink ref="A14" r:id="rId43" display="mailto:mia.lee@test.com" xr:uid="{AA0531BB-C0B7-8D45-AFFB-F7359BD0DC22}"/>
+    <hyperlink ref="A13" r:id="rId44" display="mailto:max.sun@test.com" xr:uid="{C596DFCE-D2F6-6242-8414-011F708BBDD6}"/>
+    <hyperlink ref="A12" r:id="rId45" xr:uid="{ABD53302-17E7-6341-BBA0-99E2AFE386A6}"/>
+    <hyperlink ref="A60" r:id="rId46" display="mailto:kim.qin@test.com" xr:uid="{5224042F-3FC6-0540-A684-0AEC6F1535BF}"/>
+    <hyperlink ref="A59" r:id="rId47" display="mailto:sam.zeng@test.com" xr:uid="{8E2268D1-68A5-024D-BF4F-BFF6B14299A0}"/>
+    <hyperlink ref="A58" r:id="rId48" display="mailto:lee.du@test.com" xr:uid="{C93F9273-0D47-2741-AD6E-54E053720197}"/>
+    <hyperlink ref="A57" r:id="rId49" display="mailto:amy.zhao@test.com" xr:uid="{ABD6ED77-9228-074E-81FE-691FEF930C84}"/>
+    <hyperlink ref="F13" r:id="rId50" xr:uid="{A7B7A2A8-1566-A542-BA1B-DEC640D8D8CF}"/>
+    <hyperlink ref="F14" r:id="rId51" display="mailto:leo.zou@test.com" xr:uid="{D3F17546-AC34-FE40-8B01-B49E402B43E6}"/>
+    <hyperlink ref="F18" r:id="rId52" display="mailto:leo.zou@test.com" xr:uid="{75292051-0BEE-E641-ACB6-B5C667F2D198}"/>
+    <hyperlink ref="F15" r:id="rId53" display="mailto:mia.lee@test.com" xr:uid="{8C57B150-C39A-1D40-964E-9132D8F9BCC0}"/>
+    <hyperlink ref="F19" r:id="rId54" display="mailto:ben.kim@test.com" xr:uid="{3D8075FB-443A-8B44-9D17-FE52B91EC9CA}"/>
+    <hyperlink ref="F16" r:id="rId55" display="mailto:ida.wu@test.com" xr:uid="{A8D2E68C-CC4A-084B-A669-B7C59F2607FD}"/>
+    <hyperlink ref="F17" r:id="rId56" display="mailto:ivy.luu@test.com" xr:uid="{4885B920-F555-784D-A41A-0DEF77269FB1}"/>
+    <hyperlink ref="F20" r:id="rId57" display="mailto:mia.lee@test.com" xr:uid="{436C481F-DDAC-DB47-8CAF-1C1F6DDC9B45}"/>
+    <hyperlink ref="F21" r:id="rId58" display="mailto:ava.fox@test.com" xr:uid="{AD863C5F-7CC7-6C44-8514-BA7C1B8AFC20}"/>
+    <hyperlink ref="F22" r:id="rId59" display="mailto:ian.ray@test.com" xr:uid="{AC9FD4E9-3843-824D-8165-916C3DF1F1F2}"/>
+    <hyperlink ref="F31" r:id="rId60" display="mailto:ian.ray@test.com" xr:uid="{D2C7F4E6-CAC0-8D45-AEB9-5652D77B0BA8}"/>
+    <hyperlink ref="F29" r:id="rId61" display="mailto:ted.li@test.com" xr:uid="{799377E5-86CE-B849-8145-284BBECAEA4D}"/>
+    <hyperlink ref="F30" r:id="rId62" display="mailto:jay.wei@test.com" xr:uid="{6F1EE523-80EA-CB4B-A0E0-12FB2F6F771F}"/>
+    <hyperlink ref="F24" r:id="rId63" display="mailto:kai.quo@test.com" xr:uid="{631EA0D4-CDE5-044C-B21F-AB7EA940D406}"/>
+    <hyperlink ref="F23" r:id="rId64" display="mailto:fay.yan@test.com" xr:uid="{B3D62B14-4E5E-B544-A9A2-1E3F9E62CF23}"/>
+    <hyperlink ref="F26" r:id="rId65" display="mailto:ken.lin@test.com" xr:uid="{18DB6CED-03D0-3740-803D-A105888591D9}"/>
+    <hyperlink ref="F25" r:id="rId66" display="mailto:lia.lao@test.com" xr:uid="{7591BB1B-CB37-014C-897F-F52B3AE649DF}"/>
+    <hyperlink ref="F27" r:id="rId67" display="mailto:jay.wei@test.com" xr:uid="{3B4BD1EE-FF0E-C542-9AC5-3FA2D5508BDD}"/>
+    <hyperlink ref="F32" r:id="rId68" display="mailto:sid.han@test.com" xr:uid="{F775932B-EE78-7C4A-9CC4-9C4CC5DF69A6}"/>
+    <hyperlink ref="F34" r:id="rId69" display="mailto:moe.fu@test.com" xr:uid="{85673D5A-C577-8B44-AD64-E9201462A739}"/>
+    <hyperlink ref="F38" r:id="rId70" display="mailto:ray.pan@test.com" xr:uid="{6BB7BCA4-D411-9347-8258-67E262BBF49E}"/>
+    <hyperlink ref="F33" r:id="rId71" display="mailto:jan.hu@test.com" xr:uid="{874E2B35-9A6A-3442-9B19-40F462198F38}"/>
+    <hyperlink ref="F35" r:id="rId72" display="mailto:liz.ren@test.com" xr:uid="{7B9091E6-C2C9-6940-9BC4-BEF2327B9041}"/>
+    <hyperlink ref="F39" r:id="rId73" display="mailto:may.luo@test.com" xr:uid="{CE22E908-C859-1647-840A-A603CBDDB652}"/>
+    <hyperlink ref="F36" r:id="rId74" display="mailto:liz.ren@test.com" xr:uid="{D8D5A69B-0128-A241-991B-66B412D59A19}"/>
+    <hyperlink ref="F40" r:id="rId75" display="mailto:liz.ren@test.com" xr:uid="{4A2CCF06-297A-9D4C-BA66-B735AE52C470}"/>
+    <hyperlink ref="F37" r:id="rId76" display="mailto:sid.han@test.com" xr:uid="{067B3504-6D0E-A84C-9734-E8BDCDB442FC}"/>
+    <hyperlink ref="F50" r:id="rId77" display="mailto:vic.wu@test.com" xr:uid="{B9D33E8C-1948-A64B-A089-5DE641C32747}"/>
+    <hyperlink ref="F42" r:id="rId78" display="mailto:nan.tao@test.com" xr:uid="{4833FDF8-D47B-6940-8713-602921A48A45}"/>
+    <hyperlink ref="F49" r:id="rId79" display="mailto:les.zhou@test.com" xr:uid="{ED0A45D4-DBD0-D446-B051-B50477F78E01}"/>
+    <hyperlink ref="F48" r:id="rId80" display="mailto:flo.fan@test.com" xr:uid="{87F33A82-497F-6C43-9EA1-C8A423218C00}"/>
+    <hyperlink ref="F46" r:id="rId81" display="mailto:tia.gao@test.com" xr:uid="{8F565BE4-00EA-074A-AF6C-5CC2DDF1758F}"/>
+    <hyperlink ref="F44" r:id="rId82" display="mailto:bea.guo@test.com" xr:uid="{87416197-D13C-664F-8297-129827285634}"/>
+    <hyperlink ref="F45" r:id="rId83" display="mailto:art.yao@test.com" xr:uid="{DAB49BC8-110A-7B42-9EF2-4F8264987435}"/>
+    <hyperlink ref="F43" r:id="rId84" display="mailto:art.yao@test.com" xr:uid="{6B1CAF68-EBA1-DE42-AA61-37AD6830814A}"/>
+    <hyperlink ref="F52" r:id="rId85" display="mailto:ty.yu@test.com" xr:uid="{317CAE3A-0713-5A4C-9E2E-1407C9F1F6B7}"/>
+    <hyperlink ref="F53" r:id="rId86" display="mailto:pat.pei@test.com" xr:uid="{455ADEEB-AD03-4A47-8CC1-E5157E4A2882}"/>
+    <hyperlink ref="F54" r:id="rId87" display="mailto:pat.pei@test.com" xr:uid="{3B6E3C49-4CC9-4F48-828E-D8801B7F0EBB}"/>
+    <hyperlink ref="F55" r:id="rId88" display="mailto:sal.cui@test.com" xr:uid="{4480F5EA-2717-6D40-87E0-ECBB0FE03E58}"/>
+    <hyperlink ref="F56" r:id="rId89" display="mailto:len.qian@test.com" xr:uid="{C81737AB-3E01-7943-B741-17B7366035E0}"/>
+    <hyperlink ref="F57" r:id="rId90" display="mailto:syd.he@test.com" xr:uid="{1F4AD51D-E68E-6143-AC92-1A2C709A5D8A}"/>
+    <hyperlink ref="F58" r:id="rId91" display="mailto:rob.kang@test.com" xr:uid="{2993D4FC-17C3-5949-ACCC-FF58DC150688}"/>
+    <hyperlink ref="F59" r:id="rId92" display="mailto:amy.zhao@test.com" xr:uid="{71D017C8-0B40-AF4C-A53E-A6677CB99363}"/>
+    <hyperlink ref="F60" r:id="rId93" display="mailto:lee.du@test.com" xr:uid="{D5B483FE-DB7D-8049-A698-6F1DB5AF4592}"/>
+    <hyperlink ref="F51" r:id="rId94" display="mailto:kim.qin@test.com" xr:uid="{E4BC6E2D-0336-5345-8ABB-437854A948A6}"/>
+    <hyperlink ref="A61" r:id="rId95" xr:uid="{D863638C-C6C4-0A4A-8594-BCF29DC8F26C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>